--- a/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Clcf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H2">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I2">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J2">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.88590828561996</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N2">
-        <v>4.88590828561996</v>
+        <v>15.7807</v>
       </c>
       <c r="O2">
-        <v>0.8088095186196025</v>
+        <v>0.8086411516342948</v>
       </c>
       <c r="P2">
-        <v>0.8088095186196025</v>
+        <v>0.8604254456975129</v>
       </c>
       <c r="Q2">
-        <v>3.916365107953041</v>
+        <v>6.316372461533332</v>
       </c>
       <c r="R2">
-        <v>3.916365107953041</v>
+        <v>56.8473521538</v>
       </c>
       <c r="S2">
-        <v>0.04374874106758216</v>
+        <v>0.05930949741427858</v>
       </c>
       <c r="T2">
-        <v>0.04374874106758216</v>
+        <v>0.0755853512741389</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.801563369390202</v>
+        <v>1.200778</v>
       </c>
       <c r="H3">
-        <v>0.801563369390202</v>
+        <v>3.602334</v>
       </c>
       <c r="I3">
-        <v>0.0540902895681152</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J3">
-        <v>0.0540902895681152</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.15495569179558</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N3">
-        <v>1.15495569179558</v>
+        <v>0.173483</v>
       </c>
       <c r="O3">
-        <v>0.1911904813803975</v>
+        <v>0.008889687587304263</v>
       </c>
       <c r="P3">
-        <v>0.1911904813803975</v>
+        <v>0.009458971249433906</v>
       </c>
       <c r="Q3">
-        <v>0.9257701758120569</v>
+        <v>0.06943818992466666</v>
       </c>
       <c r="R3">
-        <v>0.9257701758120569</v>
+        <v>0.6249437093219999</v>
       </c>
       <c r="S3">
-        <v>0.01034154850053304</v>
+        <v>0.0006520109716249147</v>
       </c>
       <c r="T3">
-        <v>0.01034154850053304</v>
+        <v>0.0008309373788926625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.98728589742456</v>
+        <v>1.200778</v>
       </c>
       <c r="H4">
-        <v>2.98728589742456</v>
+        <v>3.602334</v>
       </c>
       <c r="I4">
-        <v>0.2015850092268656</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J4">
-        <v>0.2015850092268656</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>4.88590828561996</v>
+        <v>0.012461</v>
       </c>
       <c r="N4">
-        <v>4.88590828561996</v>
+        <v>0.037383</v>
       </c>
       <c r="O4">
-        <v>0.8088095186196025</v>
+        <v>0.001915595136562057</v>
       </c>
       <c r="P4">
-        <v>0.8088095186196025</v>
+        <v>0.002038267278163207</v>
       </c>
       <c r="Q4">
-        <v>14.59560491774232</v>
+        <v>0.014962894658</v>
       </c>
       <c r="R4">
-        <v>14.59560491774232</v>
+        <v>0.134666051922</v>
       </c>
       <c r="S4">
-        <v>0.1630438742737093</v>
+        <v>0.0001404986433959188</v>
       </c>
       <c r="T4">
-        <v>0.1630438742737093</v>
+        <v>0.0001790546165050431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.98728589742456</v>
+        <v>1.200778</v>
       </c>
       <c r="H5">
-        <v>2.98728589742456</v>
+        <v>3.602334</v>
       </c>
       <c r="I5">
-        <v>0.2015850092268656</v>
+        <v>0.07334464402956961</v>
       </c>
       <c r="J5">
-        <v>0.2015850092268656</v>
+        <v>0.08784648530804995</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.15495569179558</v>
+        <v>1.174506</v>
       </c>
       <c r="N5">
-        <v>1.15495569179558</v>
+        <v>2.349012</v>
       </c>
       <c r="O5">
-        <v>0.1911904813803975</v>
+        <v>0.1805535656418389</v>
       </c>
       <c r="P5">
-        <v>0.1911904813803975</v>
+        <v>0.12807731577489</v>
       </c>
       <c r="Q5">
-        <v>3.450182850251163</v>
+        <v>1.410320965668</v>
       </c>
       <c r="R5">
-        <v>3.450182850251163</v>
+        <v>8.461925794008</v>
       </c>
       <c r="S5">
-        <v>0.03854113495315631</v>
+        <v>0.01324263700027021</v>
       </c>
       <c r="T5">
-        <v>0.03854113495315631</v>
+        <v>0.01125114203851335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,181 +782,181 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.20291163798468</v>
+        <v>3.197813</v>
       </c>
       <c r="H6">
-        <v>1.20291163798468</v>
+        <v>9.593439</v>
       </c>
       <c r="I6">
-        <v>0.08117366799451757</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J6">
-        <v>0.08117366799451757</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.88590828561996</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N6">
-        <v>4.88590828561996</v>
+        <v>15.7807</v>
       </c>
       <c r="O6">
-        <v>0.8088095186196025</v>
+        <v>0.8086411516342948</v>
       </c>
       <c r="P6">
-        <v>0.8088095186196025</v>
+        <v>0.8604254456975129</v>
       </c>
       <c r="Q6">
-        <v>5.877315938898026</v>
+        <v>16.82124253636666</v>
       </c>
       <c r="R6">
-        <v>5.877315938898026</v>
+        <v>151.3911828273</v>
       </c>
       <c r="S6">
-        <v>0.06565403533523319</v>
+        <v>0.1579481651519652</v>
       </c>
       <c r="T6">
-        <v>0.06565403533523319</v>
+        <v>0.2012926776756469</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.20291163798468</v>
+        <v>3.197813</v>
       </c>
       <c r="H7">
-        <v>1.20291163798468</v>
+        <v>9.593439</v>
       </c>
       <c r="I7">
-        <v>0.08117366799451757</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J7">
-        <v>0.08117366799451757</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.15495569179558</v>
+        <v>0.05782766666666667</v>
       </c>
       <c r="N7">
-        <v>1.15495569179558</v>
+        <v>0.173483</v>
       </c>
       <c r="O7">
-        <v>0.1911904813803975</v>
+        <v>0.008889687587304263</v>
       </c>
       <c r="P7">
-        <v>0.1911904813803975</v>
+        <v>0.009458971249433906</v>
       </c>
       <c r="Q7">
-        <v>1.38930964301755</v>
+        <v>0.1849220642263333</v>
       </c>
       <c r="R7">
-        <v>1.38930964301755</v>
+        <v>1.664298578037</v>
       </c>
       <c r="S7">
-        <v>0.01551963265928438</v>
+        <v>0.001736381880085064</v>
       </c>
       <c r="T7">
-        <v>0.01551963265928438</v>
+        <v>0.002212883940585922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.89274127930474</v>
+        <v>3.197813</v>
       </c>
       <c r="H8">
-        <v>1.89274127930474</v>
+        <v>9.593439</v>
       </c>
       <c r="I8">
-        <v>0.1277240549964304</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J8">
-        <v>0.1277240549964304</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.88590828561996</v>
+        <v>0.012461</v>
       </c>
       <c r="N8">
-        <v>4.88590828561996</v>
+        <v>0.037383</v>
       </c>
       <c r="O8">
-        <v>0.8088095186196025</v>
+        <v>0.001915595136562057</v>
       </c>
       <c r="P8">
-        <v>0.8088095186196025</v>
+        <v>0.002038267278163207</v>
       </c>
       <c r="Q8">
-        <v>9.247760299089952</v>
+        <v>0.039847947793</v>
       </c>
       <c r="R8">
-        <v>9.247760299089952</v>
+        <v>0.358631530137</v>
       </c>
       <c r="S8">
-        <v>0.1033044314378065</v>
+        <v>0.0003741644070209759</v>
       </c>
       <c r="T8">
-        <v>0.1033044314378065</v>
+        <v>0.0004768434967744591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.89274127930474</v>
+        <v>3.197813</v>
       </c>
       <c r="H9">
-        <v>1.89274127930474</v>
+        <v>9.593439</v>
       </c>
       <c r="I9">
-        <v>0.1277240549964304</v>
+        <v>0.1953254108237577</v>
       </c>
       <c r="J9">
-        <v>0.1277240549964304</v>
+        <v>0.2339455192570077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.15495569179558</v>
+        <v>1.174506</v>
       </c>
       <c r="N9">
-        <v>1.15495569179558</v>
+        <v>2.349012</v>
       </c>
       <c r="O9">
-        <v>0.1911904813803975</v>
+        <v>0.1805535656418389</v>
       </c>
       <c r="P9">
-        <v>0.1911904813803975</v>
+        <v>0.12807731577489</v>
       </c>
       <c r="Q9">
-        <v>2.186032313629457</v>
+        <v>3.755850555378</v>
       </c>
       <c r="R9">
-        <v>2.186032313629457</v>
+        <v>22.535103332268</v>
       </c>
       <c r="S9">
-        <v>0.02441962355862389</v>
+        <v>0.03526669938468648</v>
       </c>
       <c r="T9">
-        <v>0.02441962355862389</v>
+        <v>0.02996311414400037</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,114 +1030,734 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.93448613691051</v>
+        <v>1.622028</v>
       </c>
       <c r="H10">
-        <v>7.93448613691051</v>
+        <v>4.866084</v>
       </c>
       <c r="I10">
-        <v>0.5354269782140713</v>
+        <v>0.09907498827093329</v>
       </c>
       <c r="J10">
-        <v>0.5354269782140713</v>
+        <v>0.118664281716725</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.88590828561996</v>
+        <v>5.260233333333333</v>
       </c>
       <c r="N10">
-        <v>4.88590828561996</v>
+        <v>15.7807</v>
       </c>
       <c r="O10">
-        <v>0.8088095186196025</v>
+        <v>0.8086411516342948</v>
       </c>
       <c r="P10">
-        <v>0.8088095186196025</v>
+        <v>0.8604254456975129</v>
       </c>
       <c r="Q10">
-        <v>38.76717155846777</v>
+        <v>8.5322457532</v>
       </c>
       <c r="R10">
-        <v>38.76717155846777</v>
+        <v>76.7902117788</v>
       </c>
       <c r="S10">
-        <v>0.4330584365052714</v>
+        <v>0.08011611261356175</v>
       </c>
       <c r="T10">
-        <v>0.4330584365052714</v>
+        <v>0.1021017674844884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.622028</v>
+      </c>
+      <c r="H11">
+        <v>4.866084</v>
+      </c>
+      <c r="I11">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J11">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.173483</v>
+      </c>
+      <c r="O11">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P11">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q11">
+        <v>0.093798094508</v>
+      </c>
+      <c r="R11">
+        <v>0.8441828505719999</v>
+      </c>
+      <c r="S11">
+        <v>0.0008807456934444312</v>
+      </c>
+      <c r="T11">
+        <v>0.001122442029093228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.622028</v>
+      </c>
+      <c r="H12">
+        <v>4.866084</v>
+      </c>
+      <c r="I12">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J12">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.012461</v>
+      </c>
+      <c r="N12">
+        <v>0.037383</v>
+      </c>
+      <c r="O12">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P12">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q12">
+        <v>0.020212090908</v>
+      </c>
+      <c r="R12">
+        <v>0.181908818172</v>
+      </c>
+      <c r="S12">
+        <v>0.0001897875656867426</v>
+      </c>
+      <c r="T12">
+        <v>0.0002418695225099411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.622028</v>
+      </c>
+      <c r="H13">
+        <v>4.866084</v>
+      </c>
+      <c r="I13">
+        <v>0.09907498827093329</v>
+      </c>
+      <c r="J13">
+        <v>0.118664281716725</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.174506</v>
+      </c>
+      <c r="N13">
+        <v>2.349012</v>
+      </c>
+      <c r="O13">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P13">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q13">
+        <v>1.905081618168</v>
+      </c>
+      <c r="R13">
+        <v>11.430489709008</v>
+      </c>
+      <c r="S13">
+        <v>0.01788834239824038</v>
+      </c>
+      <c r="T13">
+        <v>0.01519820268063349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.729271</v>
+      </c>
+      <c r="I14">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J14">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N14">
+        <v>15.7807</v>
+      </c>
+      <c r="O14">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P14">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q14">
+        <v>11.79917854107778</v>
+      </c>
+      <c r="R14">
+        <v>106.1926068697</v>
+      </c>
+      <c r="S14">
+        <v>0.1107919701433792</v>
+      </c>
+      <c r="T14">
+        <v>0.141195767064874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.729271</v>
+      </c>
+      <c r="I15">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J15">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.173483</v>
+      </c>
+      <c r="O15">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P15">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q15">
+        <v>0.1297126800992222</v>
+      </c>
+      <c r="R15">
+        <v>1.167414120893</v>
+      </c>
+      <c r="S15">
+        <v>0.00121797660156925</v>
+      </c>
+      <c r="T15">
+        <v>0.001552216648039411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.729271</v>
+      </c>
+      <c r="I16">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J16">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.012461</v>
+      </c>
+      <c r="N16">
+        <v>0.037383</v>
+      </c>
+      <c r="O16">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P16">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q16">
+        <v>0.02795114864366667</v>
+      </c>
+      <c r="R16">
+        <v>0.251560337793</v>
+      </c>
+      <c r="S16">
+        <v>0.00026245579853048</v>
+      </c>
+      <c r="T16">
+        <v>0.0003344795452791185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>7.93448613691051</v>
-      </c>
-      <c r="H11">
-        <v>7.93448613691051</v>
-      </c>
-      <c r="I11">
-        <v>0.5354269782140713</v>
-      </c>
-      <c r="J11">
-        <v>0.5354269782140713</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.15495569179558</v>
-      </c>
-      <c r="N11">
-        <v>1.15495569179558</v>
-      </c>
-      <c r="O11">
-        <v>0.1911904813803975</v>
-      </c>
-      <c r="P11">
-        <v>0.1911904813803975</v>
-      </c>
-      <c r="Q11">
-        <v>9.163979925297918</v>
-      </c>
-      <c r="R11">
-        <v>9.163979925297918</v>
-      </c>
-      <c r="S11">
-        <v>0.1023685417087999</v>
-      </c>
-      <c r="T11">
-        <v>0.1023685417087999</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.243090333333333</v>
+      </c>
+      <c r="H17">
+        <v>6.729271</v>
+      </c>
+      <c r="I17">
+        <v>0.1370100568335712</v>
+      </c>
+      <c r="J17">
+        <v>0.1640999435464303</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.174506</v>
+      </c>
+      <c r="N17">
+        <v>2.349012</v>
+      </c>
+      <c r="O17">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P17">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q17">
+        <v>2.634523055042</v>
+      </c>
+      <c r="R17">
+        <v>15.807138330252</v>
+      </c>
+      <c r="S17">
+        <v>0.02473765429009228</v>
+      </c>
+      <c r="T17">
+        <v>0.02101748028823778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H18">
+        <v>16.216022</v>
+      </c>
+      <c r="I18">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J18">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.260233333333333</v>
+      </c>
+      <c r="N18">
+        <v>15.7807</v>
+      </c>
+      <c r="O18">
+        <v>0.8086411516342948</v>
+      </c>
+      <c r="P18">
+        <v>0.8604254456975129</v>
+      </c>
+      <c r="Q18">
+        <v>42.65002972923332</v>
+      </c>
+      <c r="R18">
+        <v>255.9001783754</v>
+      </c>
+      <c r="S18">
+        <v>0.4004754063111102</v>
+      </c>
+      <c r="T18">
+        <v>0.3402498821983648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H19">
+        <v>16.216022</v>
+      </c>
+      <c r="I19">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J19">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.05782766666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.173483</v>
+      </c>
+      <c r="O19">
+        <v>0.008889687587304263</v>
+      </c>
+      <c r="P19">
+        <v>0.009458971249433906</v>
+      </c>
+      <c r="Q19">
+        <v>0.4688673574376666</v>
+      </c>
+      <c r="R19">
+        <v>2.813204144626</v>
+      </c>
+      <c r="S19">
+        <v>0.004402572440580604</v>
+      </c>
+      <c r="T19">
+        <v>0.003740491252822684</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H20">
+        <v>16.216022</v>
+      </c>
+      <c r="I20">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J20">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.012461</v>
+      </c>
+      <c r="N20">
+        <v>0.037383</v>
+      </c>
+      <c r="O20">
+        <v>0.001915595136562057</v>
+      </c>
+      <c r="P20">
+        <v>0.002038267278163207</v>
+      </c>
+      <c r="Q20">
+        <v>0.101033925071</v>
+      </c>
+      <c r="R20">
+        <v>0.6062035504259999</v>
+      </c>
+      <c r="S20">
+        <v>0.0009486887219279394</v>
+      </c>
+      <c r="T20">
+        <v>0.0008060200970946453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.108010999999999</v>
+      </c>
+      <c r="H21">
+        <v>16.216022</v>
+      </c>
+      <c r="I21">
+        <v>0.4952449000421683</v>
+      </c>
+      <c r="J21">
+        <v>0.3954437701717871</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.174506</v>
+      </c>
+      <c r="N21">
+        <v>2.349012</v>
+      </c>
+      <c r="O21">
+        <v>0.1805535656418389</v>
+      </c>
+      <c r="P21">
+        <v>0.12807731577489</v>
+      </c>
+      <c r="Q21">
+        <v>9.522907567566</v>
+      </c>
+      <c r="R21">
+        <v>38.091630270264</v>
+      </c>
+      <c r="S21">
+        <v>0.08941823256854958</v>
+      </c>
+      <c r="T21">
+        <v>0.050647376623505</v>
       </c>
     </row>
   </sheetData>
